--- a/target/test-classes/testdata/HrmsTestData.xlsx
+++ b/target/test-classes/testdata/HrmsTestData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oksanavoronina/eclipse-workspace/HrmsFramework/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oksanavoronina/eclipse-workspace/HrmsCucumber/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF20A764-A9F1-F445-BF4B-7FC13E96AF04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05056D47-CC77-8D42-A493-533370B12B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{2FFE0766-48F3-D54C-8127-A284A015E88A}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{2FFE0766-48F3-D54C-8127-A284A015E88A}"/>
   </bookViews>
   <sheets>
     <sheet name="LoggIn" sheetId="1" r:id="rId1"/>
-    <sheet name="Reports" sheetId="2" r:id="rId2"/>
+    <sheet name="personalD" sheetId="3" r:id="rId2"/>
+    <sheet name="Reports" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>lastName</t>
   </si>
@@ -158,12 +159,54 @@
   <si>
     <t>Employee First Name</t>
   </si>
+  <si>
+    <t>Driving's License</t>
+  </si>
+  <si>
+    <t>License Expiry Date</t>
+  </si>
+  <si>
+    <t>SSN Number</t>
+  </si>
+  <si>
+    <t>SIN Number</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Nick Name</t>
+  </si>
+  <si>
+    <t>Smoker</t>
+  </si>
+  <si>
+    <t>Military Service</t>
+  </si>
+  <si>
+    <t>AB1246878990</t>
+  </si>
+  <si>
+    <t>457-566-7896</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,16 +242,33 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -216,12 +276,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -230,6 +316,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -547,16 +638,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78496877-5D3C-1147-BA59-3E0EA8773FD1}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -570,7 +661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -584,7 +675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -598,7 +689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -612,7 +703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -635,6 +726,85 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A2299B-1C41-AC42-924E-A438603F2501}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44020</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2">
+        <v>233567</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C5CD19-9967-B644-9EA0-CF7917D41B82}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -642,12 +812,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -664,7 +834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="18">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -681,7 +851,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="38">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -698,7 +868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="38">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
